--- a/data/input/employee_absence_data_37.xlsx
+++ b/data/input/employee_absence_data_37.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37158</v>
+        <v>81577</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mathias Lima</t>
+          <t>Pietro Vieira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,274 +482,274 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>5784.95</v>
+        <v>5381.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20207</v>
+        <v>17975</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arthur Gabriel Siqueira</t>
+          <t>Sr. Ravi Lucca Silveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>5688.27</v>
+        <v>6766.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17392</v>
+        <v>13015</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sara Rodrigues</t>
+          <t>Benjamim Rios</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45102</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>10600.59</v>
+        <v>7075.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4585</v>
+        <v>86452</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liam Cunha</t>
+          <t>Rebeca Cavalcanti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45099</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>8174.47</v>
+        <v>8057.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10820</v>
+        <v>64803</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Benicio Vasconcelos</t>
+          <t>Bruno Novais</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45081</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>5313.47</v>
+        <v>4713.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7016</v>
+        <v>69705</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sra. Luna Almeida</t>
+          <t>Cecilia Pereira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45094</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>2818.06</v>
+        <v>8597.540000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4718</v>
+        <v>88356</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Antony Mendes</t>
+          <t>Maria Julia Sá</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45080</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>2679.73</v>
+        <v>4358.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79668</v>
+        <v>25357</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yago Rezende</t>
+          <t>Lucas Gabriel Silva</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45097</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>3440.89</v>
+        <v>7554.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>37928</v>
+        <v>25433</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Ana Liz Sales</t>
+          <t>João Guilherme Borges</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45102</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>7853.45</v>
+        <v>5602.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56127</v>
+        <v>80682</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. João Lucas Rocha</t>
+          <t>Miguel da Rosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45100</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>10844.79</v>
+        <v>2481.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_37.xlsx
+++ b/data/input/employee_absence_data_37.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81577</v>
+        <v>90206</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pietro Vieira</t>
+          <t>Ravi Lucca Rezende</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45085</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>5381.77</v>
+        <v>3855.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17975</v>
+        <v>13657</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Ravi Lucca Silveira</t>
+          <t>Calebe Campos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,51 +511,51 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>6766.99</v>
+        <v>7163.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13015</v>
+        <v>69514</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Benjamim Rios</t>
+          <t>Anna Liz Azevedo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45089</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>7075.69</v>
+        <v>3385.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86452</v>
+        <v>27382</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rebeca Cavalcanti</t>
+          <t>Otávio Moreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45092</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>8057.86</v>
+        <v>4971.99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64803</v>
+        <v>36251</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bruno Novais</t>
+          <t>Sra. Emanuella Montenegro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,118 +594,118 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45102</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>4713.33</v>
+        <v>4142.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69705</v>
+        <v>83233</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cecilia Pereira</t>
+          <t>Dra. Mariana da Cruz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45085</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>8597.540000000001</v>
+        <v>8069.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88356</v>
+        <v>49594</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Julia Sá</t>
+          <t>Joana Camargo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45083</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>4358.64</v>
+        <v>3438.49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25357</v>
+        <v>51703</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Silva</t>
+          <t>Isabella Pereira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>7554.76</v>
+        <v>6274.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25433</v>
+        <v>20352</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Guilherme Borges</t>
+          <t>Jade Moraes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,42 +714,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>5602.82</v>
+        <v>5395.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80682</v>
+        <v>34462</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Miguel da Rosa</t>
+          <t>Manuela da Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>2481.2</v>
+        <v>3204.64</v>
       </c>
     </row>
   </sheetData>
